--- a/Code/Results/Cases/Case_0_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_73/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06988174552855497</v>
+        <v>0.1506834993896362</v>
       </c>
       <c r="D2">
-        <v>0.03690383616223158</v>
+        <v>0.1005736726642574</v>
       </c>
       <c r="E2">
-        <v>0.06545856493643498</v>
+        <v>0.1396915254104911</v>
       </c>
       <c r="F2">
-        <v>2.083439316038564</v>
+        <v>2.447612376704498</v>
       </c>
       <c r="G2">
-        <v>0.0007758628556875008</v>
+        <v>0.00249952884151275</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.51644877878843</v>
+        <v>1.746282104336686</v>
       </c>
       <c r="J2">
-        <v>0.1132850897511872</v>
+        <v>0.2074473435006823</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09981522925676245</v>
+        <v>0.2117037805259443</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.189920432350505</v>
+        <v>6.773999207379518</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.066173120285967</v>
+        <v>0.1506001191999786</v>
       </c>
       <c r="D3">
-        <v>0.03607464513713055</v>
+        <v>0.1007978339278388</v>
       </c>
       <c r="E3">
-        <v>0.06186289771465425</v>
+        <v>0.1396102605362533</v>
       </c>
       <c r="F3">
-        <v>1.870685151757471</v>
+        <v>2.411058583748769</v>
       </c>
       <c r="G3">
-        <v>0.000783058045208554</v>
+        <v>0.002504394110525603</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.359899910377905</v>
+        <v>1.719032899959544</v>
       </c>
       <c r="J3">
-        <v>0.1052805636820295</v>
+        <v>0.2067835050900939</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09422732018996527</v>
+        <v>0.2115744371488333</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.533926589584212</v>
+        <v>6.656197380233436</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0639856247581676</v>
+        <v>0.1506033809576479</v>
       </c>
       <c r="D4">
-        <v>0.03560035540536077</v>
+        <v>0.1009607465917526</v>
       </c>
       <c r="E4">
-        <v>0.05974525834164268</v>
+        <v>0.1396130617121845</v>
       </c>
       <c r="F4">
-        <v>1.743386724122914</v>
+        <v>2.389927942158621</v>
       </c>
       <c r="G4">
-        <v>0.0007876112721228802</v>
+        <v>0.002507542966596385</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.266211477833863</v>
+        <v>1.703247198003993</v>
       </c>
       <c r="J4">
-        <v>0.1005404383699826</v>
+        <v>0.2064653220329475</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.090939074523817</v>
+        <v>0.2115765548513266</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.14114279731541</v>
+        <v>6.587612858722423</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06311539374355135</v>
+        <v>0.1506184217761515</v>
       </c>
       <c r="D5">
-        <v>0.03541547328820016</v>
+        <v>0.101033504592003</v>
       </c>
       <c r="E5">
-        <v>0.05890353708162266</v>
+        <v>0.1396274676000129</v>
       </c>
       <c r="F5">
-        <v>1.692271432398584</v>
+        <v>2.381646935565854</v>
       </c>
       <c r="G5">
-        <v>0.0007895019383228348</v>
+        <v>0.002508866911946211</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.228586779400104</v>
+        <v>1.697051819144519</v>
       </c>
       <c r="J5">
-        <v>0.09864945293281124</v>
+        <v>0.2063581490956423</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08963264987291808</v>
+        <v>0.2115979369358527</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.983351621997826</v>
+        <v>6.560604663502261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06297213496794285</v>
+        <v>0.1506217479725152</v>
       </c>
       <c r="D6">
-        <v>0.03538527062460872</v>
+        <v>0.1010459711268865</v>
       </c>
       <c r="E6">
-        <v>0.05876501265036183</v>
+        <v>0.1396306612125624</v>
       </c>
       <c r="F6">
-        <v>1.683827489540946</v>
+        <v>2.380291794617975</v>
       </c>
       <c r="G6">
-        <v>0.0007898180396113681</v>
+        <v>0.002509089218230279</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.222371086440376</v>
+        <v>1.696037412083484</v>
       </c>
       <c r="J6">
-        <v>0.09833782061181751</v>
+        <v>0.2063417115621533</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08941768114236481</v>
+        <v>0.2116027272131191</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.95728094785062</v>
+        <v>6.556176738048009</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06397380442210476</v>
+        <v>0.1506035282615343</v>
       </c>
       <c r="D7">
-        <v>0.0355978284927474</v>
+        <v>0.1009617020225484</v>
       </c>
       <c r="E7">
-        <v>0.05973382242820691</v>
+        <v>0.1396132022702954</v>
       </c>
       <c r="F7">
-        <v>1.742694388151875</v>
+        <v>2.389814926386819</v>
       </c>
       <c r="G7">
-        <v>0.0007876366263630852</v>
+        <v>0.002507560656430805</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.265701887655339</v>
+        <v>1.703162684060729</v>
       </c>
       <c r="J7">
-        <v>0.1005147754188158</v>
+        <v>0.2064637855962204</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.09092132269154263</v>
+        <v>0.2115767601141698</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.139005881313778</v>
+        <v>6.587244810478467</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06858357175130436</v>
+        <v>0.1506434575370008</v>
       </c>
       <c r="D8">
-        <v>0.03661047168874987</v>
+        <v>0.1006457254054602</v>
       </c>
       <c r="E8">
-        <v>0.06419918292349536</v>
+        <v>0.1396525751937077</v>
       </c>
       <c r="F8">
-        <v>2.009340698143575</v>
+        <v>2.434735744743548</v>
       </c>
       <c r="G8">
-        <v>0.0007783163850456174</v>
+        <v>0.002501172935840412</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.461929526980725</v>
+        <v>1.736690154748217</v>
       </c>
       <c r="J8">
-        <v>0.1104868227949254</v>
+        <v>0.207199895637622</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09785742784634266</v>
+        <v>0.2116422695768563</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.961506181163259</v>
+        <v>6.732602645548866</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07840072833044331</v>
+        <v>0.151153226531477</v>
       </c>
       <c r="D9">
-        <v>0.0388908389800342</v>
+        <v>0.1002260900631669</v>
       </c>
       <c r="E9">
-        <v>0.07374132814616274</v>
+        <v>0.1401475027033285</v>
       </c>
       <c r="F9">
-        <v>2.562571834199844</v>
+        <v>2.533273707637704</v>
       </c>
       <c r="G9">
-        <v>0.0007610566740643566</v>
+        <v>0.002489922381638247</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.868903270756888</v>
+        <v>1.809958868860903</v>
       </c>
       <c r="J9">
-        <v>0.1315903370711169</v>
+        <v>0.2093530118710731</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1127074550673441</v>
+        <v>0.212417194507573</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.665823836667016</v>
+        <v>7.047465294632445</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08618935428932417</v>
+        <v>0.1517901743448462</v>
       </c>
       <c r="D10">
-        <v>0.04077394065885187</v>
+        <v>0.1000390000918685</v>
       </c>
       <c r="E10">
-        <v>0.0813396056534188</v>
+        <v>0.1407654421211042</v>
       </c>
       <c r="F10">
-        <v>2.99354043459627</v>
+        <v>2.612086996391838</v>
       </c>
       <c r="G10">
-        <v>0.0007489092954606758</v>
+        <v>0.002482425708685732</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.185856089562492</v>
+        <v>1.86841092062312</v>
       </c>
       <c r="J10">
-        <v>0.1482899558977451</v>
+        <v>0.2113681746740355</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.124557376636254</v>
+        <v>0.2133803393407021</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.992366192604322</v>
+        <v>7.297133943381652</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08988324810893999</v>
+        <v>0.1521368116122517</v>
       </c>
       <c r="D11">
-        <v>0.04168284041216452</v>
+        <v>0.09998006562654993</v>
       </c>
       <c r="E11">
-        <v>0.08495124761964234</v>
+        <v>0.1411017313729133</v>
       </c>
       <c r="F11">
-        <v>3.196444560549622</v>
+        <v>2.649345923571218</v>
       </c>
       <c r="G11">
-        <v>0.0007434772456984248</v>
+        <v>0.002479180446187943</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.335066566607821</v>
+        <v>1.896014281248512</v>
       </c>
       <c r="J11">
-        <v>0.1562100327700477</v>
+        <v>0.2123791936029633</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1301973470573046</v>
+        <v>0.2139039825385893</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.61672686249409</v>
+        <v>7.414734569018833</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09130610844850651</v>
+        <v>0.1522762418226904</v>
       </c>
       <c r="D12">
-        <v>0.04203520530769467</v>
+        <v>0.09996150008998228</v>
       </c>
       <c r="E12">
-        <v>0.08634376576524616</v>
+        <v>0.1412370034829316</v>
       </c>
       <c r="F12">
-        <v>3.274408707386669</v>
+        <v>2.663657843630517</v>
       </c>
       <c r="G12">
-        <v>0.0007414317394148214</v>
+        <v>0.002477975138173772</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.392397744899867</v>
+        <v>1.906613189990537</v>
       </c>
       <c r="J12">
-        <v>0.159261659307667</v>
+        <v>0.2127756097622182</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1323731705898297</v>
+        <v>0.2141145604211445</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.856610474809088</v>
+        <v>7.459848082973167</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09099855911027532</v>
+        <v>0.1522458500575041</v>
       </c>
       <c r="D13">
-        <v>0.041958941729348</v>
+        <v>0.09996533184454748</v>
       </c>
       <c r="E13">
-        <v>0.08604271218148796</v>
+        <v>0.1412075178116226</v>
       </c>
       <c r="F13">
-        <v>3.257565068665258</v>
+        <v>2.660566488450911</v>
       </c>
       <c r="G13">
-        <v>0.0007418717989756277</v>
+        <v>0.002478233675135444</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.380011789861271</v>
+        <v>1.904324020137494</v>
       </c>
       <c r="J13">
-        <v>0.1586020008152005</v>
+        <v>0.2126896310700275</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1319027124262817</v>
+        <v>0.2140686624520427</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.804786066801796</v>
+        <v>7.450106222564784</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0899998108677309</v>
+        <v>0.1521481190347558</v>
       </c>
       <c r="D14">
-        <v>0.04171166154770845</v>
+        <v>0.09997846310876923</v>
       </c>
       <c r="E14">
-        <v>0.08506529684130371</v>
+        <v>0.1411127014784697</v>
       </c>
       <c r="F14">
-        <v>3.202835215073719</v>
+        <v>2.650519306838873</v>
       </c>
       <c r="G14">
-        <v>0.0007433087426580663</v>
+        <v>0.00247908081258978</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.339765985081698</v>
+        <v>1.896883329077042</v>
       </c>
       <c r="J14">
-        <v>0.1564600037083537</v>
+        <v>0.2124115351092897</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1303755239357258</v>
+        <v>0.2139210607408728</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.636390313236859</v>
+        <v>7.418434435628569</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08939125748417354</v>
+        <v>0.1520893190325765</v>
       </c>
       <c r="D15">
-        <v>0.04156128231458567</v>
+        <v>0.09998699460826188</v>
       </c>
       <c r="E15">
-        <v>0.08446992113530172</v>
+        <v>0.1410556557639389</v>
       </c>
       <c r="F15">
-        <v>3.169463135142024</v>
+        <v>2.644391541257392</v>
       </c>
       <c r="G15">
-        <v>0.00074419034547856</v>
+        <v>0.002479602778810827</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.315225497442157</v>
+        <v>1.892344731923473</v>
       </c>
       <c r="J15">
-        <v>0.155154990419085</v>
+        <v>0.2122429600104638</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1294454315891969</v>
+        <v>0.213832250094427</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.533706690492807</v>
+        <v>7.399110234349394</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08595118157973758</v>
+        <v>0.1517686642811782</v>
       </c>
       <c r="D16">
-        <v>0.04071564904318237</v>
+        <v>0.1000433772432068</v>
       </c>
       <c r="E16">
-        <v>0.08110691043733453</v>
+        <v>0.1407445745287106</v>
       </c>
       <c r="F16">
-        <v>2.980429953735552</v>
+        <v>2.609680383338571</v>
       </c>
       <c r="G16">
-        <v>0.0007492660150067483</v>
+        <v>0.002482641103935677</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.176214731346562</v>
+        <v>1.866627400008113</v>
       </c>
       <c r="J16">
-        <v>0.1477793611625344</v>
+        <v>0.2113040002657769</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.124194159957014</v>
+        <v>0.2133478377320728</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.952020364007524</v>
+        <v>7.289529623125077</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08388104294012777</v>
+        <v>0.151586512897822</v>
       </c>
       <c r="D17">
-        <v>0.04021071887162009</v>
+        <v>0.1000846612311044</v>
       </c>
       <c r="E17">
-        <v>0.07908528023536832</v>
+        <v>0.1405678641227261</v>
       </c>
       <c r="F17">
-        <v>2.866316438494124</v>
+        <v>2.588746795704651</v>
       </c>
       <c r="G17">
-        <v>0.0007524024555131631</v>
+        <v>0.002484547191223748</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.092294941932636</v>
+        <v>1.851110453494613</v>
       </c>
       <c r="J17">
-        <v>0.1433414986521768</v>
+        <v>0.210752136425441</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1210394062393902</v>
+        <v>0.2130725588642903</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.600830594034733</v>
+        <v>7.22333773475367</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0827043919635102</v>
+        <v>0.1514870994834325</v>
       </c>
       <c r="D18">
-        <v>0.03992517171100829</v>
+        <v>0.1001108709940368</v>
       </c>
       <c r="E18">
-        <v>0.07793692605197222</v>
+        <v>0.1404714198056318</v>
       </c>
       <c r="F18">
-        <v>2.801317027524448</v>
+        <v>2.576838690617961</v>
       </c>
       <c r="G18">
-        <v>0.0007542154193664406</v>
+        <v>0.002485659061528936</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.04449266326003</v>
+        <v>1.842280860830556</v>
       </c>
       <c r="J18">
-        <v>0.1408189953688463</v>
+        <v>0.210443595716086</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1192480681598909</v>
+        <v>0.2129222743105643</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.400774115235663</v>
+        <v>7.185644656867225</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08230834095636652</v>
+        <v>0.1514543600112432</v>
       </c>
       <c r="D19">
-        <v>0.03982930857138101</v>
+        <v>0.1001201687878819</v>
       </c>
       <c r="E19">
-        <v>0.07755051880073793</v>
+        <v>0.1404396579128999</v>
       </c>
       <c r="F19">
-        <v>2.77941442788196</v>
+        <v>2.572829524297418</v>
       </c>
       <c r="G19">
-        <v>0.0007548308552191411</v>
+        <v>0.002486038194331421</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.028384680295957</v>
+        <v>1.839307675527934</v>
       </c>
       <c r="J19">
-        <v>0.1399699073848808</v>
+        <v>0.2103406536367345</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1186454141996123</v>
+        <v>0.2128727731993862</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.333358665714002</v>
+        <v>7.17294742090013</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08409994345901595</v>
+        <v>0.1516053490788636</v>
       </c>
       <c r="D20">
-        <v>0.04026396037871649</v>
+        <v>0.1000800115211717</v>
       </c>
       <c r="E20">
-        <v>0.0792989747389079</v>
+        <v>0.1405861376677997</v>
       </c>
       <c r="F20">
-        <v>2.878397244568561</v>
+        <v>2.590961511249617</v>
       </c>
       <c r="G20">
-        <v>0.0007520676619591917</v>
+        <v>0.002484342677818013</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.101179375345978</v>
+        <v>1.852752388202674</v>
       </c>
       <c r="J20">
-        <v>0.1438107668507769</v>
+        <v>0.2108099645391661</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1213728056994086</v>
+        <v>0.213101029846456</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.638011651066677</v>
+        <v>7.230344762001778</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09029249411407392</v>
+        <v>0.1521766034872343</v>
       </c>
       <c r="D21">
-        <v>0.04178406589138817</v>
+        <v>0.09997450441429834</v>
       </c>
       <c r="E21">
-        <v>0.08535169067193138</v>
+        <v>0.1411403362758534</v>
       </c>
       <c r="F21">
-        <v>3.218878839926191</v>
+        <v>2.653464900058452</v>
       </c>
       <c r="G21">
-        <v>0.000742886382720787</v>
+        <v>0.002478831348221717</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.351563766883913</v>
+        <v>1.899064871532005</v>
       </c>
       <c r="J21">
-        <v>0.1570876851750924</v>
+        <v>0.212492850446786</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1308229720445908</v>
+        <v>0.2139640815894595</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.68575473535418</v>
+        <v>7.42772143151376</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09448124239017375</v>
+        <v>0.1525975438850793</v>
       </c>
       <c r="D22">
-        <v>0.04282561656505735</v>
+        <v>0.09992741150873385</v>
       </c>
       <c r="E22">
-        <v>0.08945384523661559</v>
+        <v>0.1415487359092253</v>
       </c>
       <c r="F22">
-        <v>3.448061747678764</v>
+        <v>2.695496654110912</v>
       </c>
       <c r="G22">
-        <v>0.000736951775129079</v>
+        <v>0.002475366889443447</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.520091484776714</v>
+        <v>1.930184627031267</v>
       </c>
       <c r="J22">
-        <v>0.1660740297183665</v>
+        <v>0.213671784344946</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1372352054305708</v>
+        <v>0.2145997413838074</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.39088163052935</v>
+        <v>7.560104227502904</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09223181951861648</v>
+        <v>0.1523685298818265</v>
       </c>
       <c r="D23">
-        <v>0.0422650804881286</v>
+        <v>0.09995054944637971</v>
       </c>
       <c r="E23">
-        <v>0.08725013275563853</v>
+        <v>0.1413265410027051</v>
       </c>
       <c r="F23">
-        <v>3.325081381316807</v>
+        <v>2.672955164908501</v>
       </c>
       <c r="G23">
-        <v>0.0007401138811676877</v>
+        <v>0.00247720339543811</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.429659643808051</v>
+        <v>1.913497342145476</v>
       </c>
       <c r="J23">
-        <v>0.1612474014574445</v>
+        <v>0.2130353288472975</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1337897513688588</v>
+        <v>0.2142539289422984</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.01251722339549</v>
+        <v>7.4891386027316</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08400093666316621</v>
+        <v>0.1515968167072757</v>
       </c>
       <c r="D24">
-        <v>0.0402398751668116</v>
+        <v>0.1000821059450061</v>
       </c>
       <c r="E24">
-        <v>0.07920232032326169</v>
+        <v>0.1405778601597696</v>
       </c>
       <c r="F24">
-        <v>2.872933635284824</v>
+        <v>2.589959843127303</v>
       </c>
       <c r="G24">
-        <v>0.0007522189914770726</v>
+        <v>0.002484435088262795</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.097161346839343</v>
+        <v>1.85200978513798</v>
       </c>
       <c r="J24">
-        <v>0.1435985211763935</v>
+        <v>0.2107837932467902</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1212220064334062</v>
+        <v>0.2130881332684211</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.621196374527642</v>
+        <v>7.227175759008787</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07565175667244972</v>
+        <v>0.1509691936218687</v>
       </c>
       <c r="D25">
-        <v>0.03823967154588104</v>
+        <v>0.1003182753267673</v>
       </c>
       <c r="E25">
-        <v>0.07106524272074211</v>
+        <v>0.1399689281676082</v>
       </c>
       <c r="F25">
-        <v>2.409076399561556</v>
+        <v>2.505493110964196</v>
       </c>
       <c r="G25">
-        <v>0.0007656254526857461</v>
+        <v>0.002492830271187865</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.756002217701919</v>
+        <v>1.789328805967472</v>
       </c>
       <c r="J25">
-        <v>0.1256911536933032</v>
+        <v>0.2086945016658532</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1085391331382013</v>
+        <v>0.2121383810426991</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.193165321934657</v>
+        <v>6.959077938267114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_73/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1506834993896362</v>
+        <v>0.06988174552878945</v>
       </c>
       <c r="D2">
-        <v>0.1005736726642574</v>
+        <v>0.036903836162125</v>
       </c>
       <c r="E2">
-        <v>0.1396915254104911</v>
+        <v>0.0654585649363959</v>
       </c>
       <c r="F2">
-        <v>2.447612376704498</v>
+        <v>2.083439316038564</v>
       </c>
       <c r="G2">
-        <v>0.00249952884151275</v>
+        <v>0.0007758628556888043</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.746282104336686</v>
+        <v>1.516448778788401</v>
       </c>
       <c r="J2">
-        <v>0.2074473435006823</v>
+        <v>0.1132850897512014</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2117037805259443</v>
+        <v>0.09981522925676956</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.773999207379518</v>
+        <v>6.189920432350505</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1506001191999786</v>
+        <v>0.06617312028593858</v>
       </c>
       <c r="D3">
-        <v>0.1007978339278388</v>
+        <v>0.03607464513711278</v>
       </c>
       <c r="E3">
-        <v>0.1396102605362533</v>
+        <v>0.06186289771463827</v>
       </c>
       <c r="F3">
-        <v>2.411058583748769</v>
+        <v>1.870685151757471</v>
       </c>
       <c r="G3">
-        <v>0.002504394110525603</v>
+        <v>0.0007830580452199657</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.719032899959544</v>
+        <v>1.359899910377891</v>
       </c>
       <c r="J3">
-        <v>0.2067835050900939</v>
+        <v>0.1052805636820295</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2115744371488333</v>
+        <v>0.09422732018997237</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6.656197380233436</v>
+        <v>5.533926589584212</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1506033809576479</v>
+        <v>0.06398562475818181</v>
       </c>
       <c r="D4">
-        <v>0.1009607465917526</v>
+        <v>0.0356003554054567</v>
       </c>
       <c r="E4">
-        <v>0.1396130617121845</v>
+        <v>0.05974525834161426</v>
       </c>
       <c r="F4">
-        <v>2.389927942158621</v>
+        <v>1.7433867241229</v>
       </c>
       <c r="G4">
-        <v>0.002507542966596385</v>
+        <v>0.0007876112721242158</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.703247198003993</v>
+        <v>1.266211477833878</v>
       </c>
       <c r="J4">
-        <v>0.2064653220329475</v>
+        <v>0.1005404383700608</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2115765548513266</v>
+        <v>0.09093907452366068</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.587612858722423</v>
+        <v>5.141142797315467</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1506184217761515</v>
+        <v>0.06311539374366504</v>
       </c>
       <c r="D5">
-        <v>0.101033504592003</v>
+        <v>0.03541547328849148</v>
       </c>
       <c r="E5">
-        <v>0.1396274676000129</v>
+        <v>0.05890353708162088</v>
       </c>
       <c r="F5">
-        <v>2.381646935565854</v>
+        <v>1.692271432398584</v>
       </c>
       <c r="G5">
-        <v>0.002508866911946211</v>
+        <v>0.000789501938279455</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.697051819144519</v>
+        <v>1.228586779400104</v>
       </c>
       <c r="J5">
-        <v>0.2063581490956423</v>
+        <v>0.09864945293277572</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2115979369358527</v>
+        <v>0.08963264987297492</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.560604663502261</v>
+        <v>4.98335162199777</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1506217479725152</v>
+        <v>0.06297213496775811</v>
       </c>
       <c r="D6">
-        <v>0.1010459711268865</v>
+        <v>0.03538527062450569</v>
       </c>
       <c r="E6">
-        <v>0.1396306612125624</v>
+        <v>0.05876501265036183</v>
       </c>
       <c r="F6">
-        <v>2.380291794617975</v>
+        <v>1.683827489540931</v>
       </c>
       <c r="G6">
-        <v>0.002509089218230279</v>
+        <v>0.0007898180396122014</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.696037412083484</v>
+        <v>1.222371086440347</v>
       </c>
       <c r="J6">
-        <v>0.2063417115621533</v>
+        <v>0.0983378206118104</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2116027272131191</v>
+        <v>0.08941768114237192</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.556176738048009</v>
+        <v>4.957280947850563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1506035282615343</v>
+        <v>0.06397380442222556</v>
       </c>
       <c r="D7">
-        <v>0.1009617020225484</v>
+        <v>0.03559782849274384</v>
       </c>
       <c r="E7">
-        <v>0.1396132022702954</v>
+        <v>0.05973382242822112</v>
       </c>
       <c r="F7">
-        <v>2.389814926386819</v>
+        <v>1.742694388151847</v>
       </c>
       <c r="G7">
-        <v>0.002507560656430805</v>
+        <v>0.0007876366263335594</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.703162684060729</v>
+        <v>1.265701887655325</v>
       </c>
       <c r="J7">
-        <v>0.2064637855962204</v>
+        <v>0.1005147754187945</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2115767601141698</v>
+        <v>0.09092132269152131</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.587244810478467</v>
+        <v>5.139005881313722</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1506434575370008</v>
+        <v>0.06858357175131857</v>
       </c>
       <c r="D8">
-        <v>0.1006457254054602</v>
+        <v>0.03661047168884934</v>
       </c>
       <c r="E8">
-        <v>0.1396525751937077</v>
+        <v>0.06419918292350602</v>
       </c>
       <c r="F8">
-        <v>2.434735744743548</v>
+        <v>2.009340698143603</v>
       </c>
       <c r="G8">
-        <v>0.002501172935840412</v>
+        <v>0.0007783163850456189</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.736690154748217</v>
+        <v>1.461929526980711</v>
       </c>
       <c r="J8">
-        <v>0.207199895637622</v>
+        <v>0.1104868227948828</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2116422695768563</v>
+        <v>0.09785742784629292</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.732602645548866</v>
+        <v>5.961506181163315</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.151153226531477</v>
+        <v>0.07840072833023015</v>
       </c>
       <c r="D9">
-        <v>0.1002260900631669</v>
+        <v>0.03889083897993473</v>
       </c>
       <c r="E9">
-        <v>0.1401475027033285</v>
+        <v>0.07374132814613432</v>
       </c>
       <c r="F9">
-        <v>2.533273707637704</v>
+        <v>2.562571834199815</v>
       </c>
       <c r="G9">
-        <v>0.002489922381638247</v>
+        <v>0.0007610566739546666</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.809958868860903</v>
+        <v>1.86890327075686</v>
       </c>
       <c r="J9">
-        <v>0.2093530118710731</v>
+        <v>0.1315903370711453</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.212417194507573</v>
+        <v>0.1127074550672873</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.047465294632445</v>
+        <v>7.665823836666902</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1517901743448462</v>
+        <v>0.08618935428955155</v>
       </c>
       <c r="D10">
-        <v>0.1000390000918685</v>
+        <v>0.04077394065896911</v>
       </c>
       <c r="E10">
-        <v>0.1407654421211042</v>
+        <v>0.08133960565344722</v>
       </c>
       <c r="F10">
-        <v>2.612086996391838</v>
+        <v>2.993540434596241</v>
       </c>
       <c r="G10">
-        <v>0.002482425708685732</v>
+        <v>0.0007489092954606758</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.86841092062312</v>
+        <v>2.185856089562492</v>
       </c>
       <c r="J10">
-        <v>0.2113681746740355</v>
+        <v>0.148289955897674</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2133803393407021</v>
+        <v>0.1245573766362469</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.297133943381652</v>
+        <v>8.992366192604322</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1521368116122517</v>
+        <v>0.08988324810916026</v>
       </c>
       <c r="D11">
-        <v>0.09998006562654993</v>
+        <v>0.04168284041204728</v>
       </c>
       <c r="E11">
-        <v>0.1411017313729133</v>
+        <v>0.08495124761961037</v>
       </c>
       <c r="F11">
-        <v>2.649345923571218</v>
+        <v>3.196444560549622</v>
       </c>
       <c r="G11">
-        <v>0.002479180446187943</v>
+        <v>0.0007434772457581609</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.896014281248512</v>
+        <v>2.335066566607821</v>
       </c>
       <c r="J11">
-        <v>0.2123791936029633</v>
+        <v>0.1562100327699412</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2139039825385893</v>
+        <v>0.130197347057404</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.414734569018833</v>
+        <v>9.616726862493977</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1522762418226904</v>
+        <v>0.09130610844829334</v>
       </c>
       <c r="D12">
-        <v>0.09996150008998228</v>
+        <v>0.04203520530769822</v>
       </c>
       <c r="E12">
-        <v>0.1412370034829316</v>
+        <v>0.08634376576521419</v>
       </c>
       <c r="F12">
-        <v>2.663657843630517</v>
+        <v>3.274408707386641</v>
       </c>
       <c r="G12">
-        <v>0.002477975138173772</v>
+        <v>0.0007414317393594861</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.906613189990537</v>
+        <v>2.392397744899853</v>
       </c>
       <c r="J12">
-        <v>0.2127756097622182</v>
+        <v>0.1592616593075462</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2141145604211445</v>
+        <v>0.1323731705900144</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.459848082973167</v>
+        <v>9.856610474809202</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1522458500575041</v>
+        <v>0.09099855911028953</v>
       </c>
       <c r="D13">
-        <v>0.09996533184454748</v>
+        <v>0.04195894172937287</v>
       </c>
       <c r="E13">
-        <v>0.1412075178116226</v>
+        <v>0.08604271218146309</v>
       </c>
       <c r="F13">
-        <v>2.660566488450911</v>
+        <v>3.257565068665201</v>
       </c>
       <c r="G13">
-        <v>0.002478233675135444</v>
+        <v>0.0007418717990925796</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.904324020137494</v>
+        <v>2.380011789861271</v>
       </c>
       <c r="J13">
-        <v>0.2126896310700275</v>
+        <v>0.1586020008150939</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2140686624520427</v>
+        <v>0.1319027124262178</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.450106222564784</v>
+        <v>9.804786066801853</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1521481190347558</v>
+        <v>0.0899998108679867</v>
       </c>
       <c r="D14">
-        <v>0.09997846310876923</v>
+        <v>0.04171166154783279</v>
       </c>
       <c r="E14">
-        <v>0.1411127014784697</v>
+        <v>0.08506529684133568</v>
       </c>
       <c r="F14">
-        <v>2.650519306838873</v>
+        <v>3.202835215073719</v>
       </c>
       <c r="G14">
-        <v>0.00247908081258978</v>
+        <v>0.0007433087426628347</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.896883329077042</v>
+        <v>2.339765985081684</v>
       </c>
       <c r="J14">
-        <v>0.2124115351092897</v>
+        <v>0.1564600037084247</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2139210607408728</v>
+        <v>0.1303755239357187</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.418434435628569</v>
+        <v>9.636390313236859</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1520893190325765</v>
+        <v>0.08939125748417354</v>
       </c>
       <c r="D15">
-        <v>0.09998699460826188</v>
+        <v>0.04156128231470291</v>
       </c>
       <c r="E15">
-        <v>0.1410556557639389</v>
+        <v>0.08446992113526264</v>
       </c>
       <c r="F15">
-        <v>2.644391541257392</v>
+        <v>3.169463135142053</v>
       </c>
       <c r="G15">
-        <v>0.002479602778810827</v>
+        <v>0.0007441903454777305</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.892344731923473</v>
+        <v>2.315225497442142</v>
       </c>
       <c r="J15">
-        <v>0.2122429600104638</v>
+        <v>0.1551549904190708</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.213832250094427</v>
+        <v>0.1294454315890405</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.399110234349394</v>
+        <v>9.533706690492807</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1517686642811782</v>
+        <v>0.08595118157997916</v>
       </c>
       <c r="D16">
-        <v>0.1000433772432068</v>
+        <v>0.04071564904340264</v>
       </c>
       <c r="E16">
-        <v>0.1407445745287106</v>
+        <v>0.08110691043733098</v>
       </c>
       <c r="F16">
-        <v>2.609680383338571</v>
+        <v>2.980429953735552</v>
       </c>
       <c r="G16">
-        <v>0.002482641103935677</v>
+        <v>0.0007492660150058006</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.866627400008113</v>
+        <v>2.176214731346562</v>
       </c>
       <c r="J16">
-        <v>0.2113040002657769</v>
+        <v>0.1477793611625131</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2133478377320728</v>
+        <v>0.1241941599569429</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.289529623125077</v>
+        <v>8.952020364007524</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.151586512897822</v>
+        <v>0.08388104294010645</v>
       </c>
       <c r="D17">
-        <v>0.1000846612311044</v>
+        <v>0.04021071887173022</v>
       </c>
       <c r="E17">
-        <v>0.1405678641227261</v>
+        <v>0.07908528023540029</v>
       </c>
       <c r="F17">
-        <v>2.588746795704651</v>
+        <v>2.866316438494152</v>
       </c>
       <c r="G17">
-        <v>0.002484547191223748</v>
+        <v>0.0007524024555122737</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.851110453494613</v>
+        <v>2.092294941932636</v>
       </c>
       <c r="J17">
-        <v>0.210752136425441</v>
+        <v>0.1433414986521697</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2130725588642903</v>
+        <v>0.121039406239376</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.22333773475367</v>
+        <v>8.60083059403479</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1514870994834325</v>
+        <v>0.08270439196395074</v>
       </c>
       <c r="D18">
-        <v>0.1001108709940368</v>
+        <v>0.0399251717108875</v>
       </c>
       <c r="E18">
-        <v>0.1404714198056318</v>
+        <v>0.07793692605197222</v>
       </c>
       <c r="F18">
-        <v>2.576838690617961</v>
+        <v>2.801317027524448</v>
       </c>
       <c r="G18">
-        <v>0.002485659061528936</v>
+        <v>0.0007542154194217776</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.842280860830556</v>
+        <v>2.04449266326003</v>
       </c>
       <c r="J18">
-        <v>0.210443595716086</v>
+        <v>0.1408189953688748</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2129222743105643</v>
+        <v>0.1192480681599406</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.185644656867225</v>
+        <v>8.400774115235606</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1514543600112432</v>
+        <v>0.082308340956601</v>
       </c>
       <c r="D19">
-        <v>0.1001201687878819</v>
+        <v>0.03982930857149825</v>
       </c>
       <c r="E19">
-        <v>0.1404396579128999</v>
+        <v>0.07755051880065267</v>
       </c>
       <c r="F19">
-        <v>2.572829524297418</v>
+        <v>2.779414427881989</v>
       </c>
       <c r="G19">
-        <v>0.002486038194331421</v>
+        <v>0.0007548308552189908</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.839307675527934</v>
+        <v>2.028384680295957</v>
       </c>
       <c r="J19">
-        <v>0.2103406536367345</v>
+        <v>0.1399699073850158</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2128727731993862</v>
+        <v>0.1186454141996052</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.17294742090013</v>
+        <v>8.333358665714002</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1516053490788636</v>
+        <v>0.08409994345878857</v>
       </c>
       <c r="D20">
-        <v>0.1000800115211717</v>
+        <v>0.04026396037883018</v>
       </c>
       <c r="E20">
-        <v>0.1405861376677997</v>
+        <v>0.07929897473887593</v>
       </c>
       <c r="F20">
-        <v>2.590961511249617</v>
+        <v>2.878397244568617</v>
       </c>
       <c r="G20">
-        <v>0.002484342677818013</v>
+        <v>0.0007520676619029443</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.852752388202674</v>
+        <v>2.101179375345978</v>
       </c>
       <c r="J20">
-        <v>0.2108099645391661</v>
+        <v>0.1438107668506703</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.213101029846456</v>
+        <v>0.1213728056994228</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.230344762001778</v>
+        <v>8.63801165106662</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1521766034872343</v>
+        <v>0.09029249411383233</v>
       </c>
       <c r="D21">
-        <v>0.09997450441429834</v>
+        <v>0.04178406589150185</v>
       </c>
       <c r="E21">
-        <v>0.1411403362758534</v>
+        <v>0.08535169067193493</v>
       </c>
       <c r="F21">
-        <v>2.653464900058452</v>
+        <v>3.218878839926219</v>
       </c>
       <c r="G21">
-        <v>0.002478831348221717</v>
+        <v>0.0007428863826097647</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.899064871532005</v>
+        <v>2.351563766883928</v>
       </c>
       <c r="J21">
-        <v>0.212492850446786</v>
+        <v>0.1570876851750427</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2139640815894595</v>
+        <v>0.13082297204447</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.42772143151376</v>
+        <v>9.685754735354067</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1525975438850793</v>
+        <v>0.09448124239000322</v>
       </c>
       <c r="D22">
-        <v>0.09992741150873385</v>
+        <v>0.04282561656517814</v>
       </c>
       <c r="E22">
-        <v>0.1415487359092253</v>
+        <v>0.08945384523661559</v>
       </c>
       <c r="F22">
-        <v>2.695496654110912</v>
+        <v>3.448061747678764</v>
       </c>
       <c r="G22">
-        <v>0.002475366889443447</v>
+        <v>0.0007369517751840693</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.930184627031267</v>
+        <v>2.520091484776714</v>
       </c>
       <c r="J22">
-        <v>0.213671784344946</v>
+        <v>0.1660740297184233</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2145997413838074</v>
+        <v>0.1372352054305281</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.560104227502904</v>
+        <v>10.39088163052941</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1523685298818265</v>
+        <v>0.09223181951861648</v>
       </c>
       <c r="D23">
-        <v>0.09995054944637971</v>
+        <v>0.0422650804879936</v>
       </c>
       <c r="E23">
-        <v>0.1413265410027051</v>
+        <v>0.08725013275567051</v>
       </c>
       <c r="F23">
-        <v>2.672955164908501</v>
+        <v>3.325081381316835</v>
       </c>
       <c r="G23">
-        <v>0.00247720339543811</v>
+        <v>0.0007401138811056303</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.913497342145476</v>
+        <v>2.429659643808051</v>
       </c>
       <c r="J23">
-        <v>0.2130353288472975</v>
+        <v>0.1612474014573948</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2142539289422984</v>
+        <v>0.1337897513686954</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.4891386027316</v>
+        <v>10.01251722339543</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1515968167072757</v>
+        <v>0.08400093666319464</v>
       </c>
       <c r="D24">
-        <v>0.1000821059450061</v>
+        <v>0.04023987516658778</v>
       </c>
       <c r="E24">
-        <v>0.1405778601597696</v>
+        <v>0.07920232032326524</v>
       </c>
       <c r="F24">
-        <v>2.589959843127303</v>
+        <v>2.872933635284795</v>
       </c>
       <c r="G24">
-        <v>0.002484435088262795</v>
+        <v>0.0007522189914758088</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.85200978513798</v>
+        <v>2.097161346839329</v>
       </c>
       <c r="J24">
-        <v>0.2107837932467902</v>
+        <v>0.1435985211763935</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2130881332684211</v>
+        <v>0.1212220064334559</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.227175759008787</v>
+        <v>8.621196374527642</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1509691936218687</v>
+        <v>0.07565175667242841</v>
       </c>
       <c r="D25">
-        <v>0.1003182753267673</v>
+        <v>0.03823967154576735</v>
       </c>
       <c r="E25">
-        <v>0.1399689281676082</v>
+        <v>0.07106524272074211</v>
       </c>
       <c r="F25">
-        <v>2.505493110964196</v>
+        <v>2.40907639956157</v>
       </c>
       <c r="G25">
-        <v>0.002492830271187865</v>
+        <v>0.0007656254527950918</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.789328805967472</v>
+        <v>1.756002217701919</v>
       </c>
       <c r="J25">
-        <v>0.2086945016658532</v>
+        <v>0.1256911536932463</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2121383810426991</v>
+        <v>0.1085391331382439</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.959077938267114</v>
+        <v>7.1931653219346</v>
       </c>
     </row>
   </sheetData>
